--- a/teaching/traditional_assets/database/data/hong_kong/hong_kong_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/hong_kong/hong_kong_banks_regional.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0378</v>
+        <v>0.006775</v>
       </c>
       <c r="E2">
-        <v>0.0716</v>
+        <v>0.004749999999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.00265</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,34 +606,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0276978346165359</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02295165835232131</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>64.90000000000001</v>
+        <v>1356</v>
       </c>
       <c r="L2">
-        <v>0.3544511196067723</v>
+        <v>0.4421979455405185</v>
       </c>
       <c r="M2">
-        <v>30.9</v>
+        <v>28.3</v>
       </c>
       <c r="N2">
-        <v>0.06894243641231593</v>
+        <v>0.003815301651499832</v>
       </c>
       <c r="O2">
-        <v>0.4761171032357472</v>
+        <v>0.02087020648967552</v>
       </c>
       <c r="P2">
-        <v>30.9</v>
+        <v>28.3</v>
       </c>
       <c r="Q2">
-        <v>0.06894243641231593</v>
+        <v>0.003815301651499832</v>
       </c>
       <c r="R2">
-        <v>0.4761171032357472</v>
+        <v>0.02087020648967552</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,67 +642,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>635.9</v>
+        <v>4684.5</v>
       </c>
       <c r="V2">
-        <v>1.418786256135654</v>
+        <v>0.6315470171890799</v>
       </c>
       <c r="W2">
-        <v>0.06600895036615134</v>
+        <v>0.08263623441389556</v>
       </c>
       <c r="X2">
-        <v>0.05686026199283256</v>
+        <v>0.1039724846454028</v>
       </c>
       <c r="Y2">
-        <v>0.009148688373318781</v>
+        <v>-0.02133625023150723</v>
       </c>
       <c r="Z2">
-        <v>0.6259986738545984</v>
+        <v>0.07724220273149991</v>
       </c>
       <c r="AA2">
-        <v>0.01436770769131695</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04681061324903407</v>
+        <v>0.04206366718053429</v>
       </c>
       <c r="AC2">
-        <v>-0.03244290555771712</v>
+        <v>-0.04206366718053429</v>
       </c>
       <c r="AD2">
-        <v>213.9</v>
+        <v>34140.39999999999</v>
       </c>
       <c r="AE2">
-        <v>13.59263240856139</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>227.4926324085614</v>
+        <v>34140.39999999999</v>
       </c>
       <c r="AG2">
-        <v>-408.4073675914386</v>
+        <v>29455.89999999999</v>
       </c>
       <c r="AH2">
-        <v>0.3366806466390574</v>
+        <v>0.8215140803553596</v>
       </c>
       <c r="AI2">
-        <v>0.1827554457551566</v>
+        <v>0.6951143036314918</v>
       </c>
       <c r="AJ2">
-        <v>-10.26339155947796</v>
+        <v>0.7988387292736769</v>
       </c>
       <c r="AK2">
-        <v>-0.6707379032916282</v>
+        <v>0.6629687398014418</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>27.45827984595635</v>
-      </c>
-      <c r="AP2">
-        <v>-52.42713319530662</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0378</v>
+        <v>0.00145</v>
       </c>
       <c r="E3">
-        <v>0.0716</v>
+        <v>-0.034</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,34 +728,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0276978346165359</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02295165835232131</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>64.90000000000001</v>
+        <v>45.2</v>
       </c>
       <c r="L3">
-        <v>0.3544511196067723</v>
+        <v>0.272453285111513</v>
       </c>
       <c r="M3">
-        <v>30.9</v>
+        <v>28.3</v>
       </c>
       <c r="N3">
-        <v>0.06894243641231593</v>
+        <v>0.09515803631472765</v>
       </c>
       <c r="O3">
-        <v>0.4761171032357472</v>
+        <v>0.6261061946902655</v>
       </c>
       <c r="P3">
-        <v>30.9</v>
+        <v>28.3</v>
       </c>
       <c r="Q3">
-        <v>0.06894243641231593</v>
+        <v>0.09515803631472765</v>
       </c>
       <c r="R3">
-        <v>0.4761171032357472</v>
+        <v>0.6261061946902655</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,55 +764,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>635.9</v>
+        <v>671.5</v>
       </c>
       <c r="V3">
-        <v>1.418786256135654</v>
+        <v>2.257901815736382</v>
       </c>
       <c r="W3">
-        <v>0.06600895036615134</v>
+        <v>0.04443133785510666</v>
       </c>
       <c r="X3">
-        <v>0.05686026199283256</v>
+        <v>0.05559784010641246</v>
       </c>
       <c r="Y3">
-        <v>0.009148688373318781</v>
+        <v>-0.0111665022513058</v>
       </c>
       <c r="Z3">
-        <v>0.6259986738545984</v>
+        <v>0.6909620991253642</v>
       </c>
       <c r="AA3">
-        <v>0.01436770769131695</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04681061324903407</v>
+        <v>0.04076093217129861</v>
       </c>
       <c r="AC3">
-        <v>-0.03244290555771712</v>
+        <v>-0.04076093217129861</v>
       </c>
       <c r="AD3">
-        <v>213.9</v>
+        <v>217.7</v>
       </c>
       <c r="AE3">
-        <v>13.59263240856139</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>227.4926324085614</v>
+        <v>217.7</v>
       </c>
       <c r="AG3">
-        <v>-408.4073675914386</v>
+        <v>-453.8</v>
       </c>
       <c r="AH3">
-        <v>0.3366806466390574</v>
+        <v>0.4226363812851874</v>
       </c>
       <c r="AI3">
-        <v>0.1827554457551566</v>
+        <v>0.1730112055948502</v>
       </c>
       <c r="AJ3">
-        <v>-10.26339155947796</v>
+        <v>2.901534526854219</v>
       </c>
       <c r="AK3">
-        <v>-0.6707379032916282</v>
+        <v>-0.7733469665985004</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -823,11 +820,127 @@
       <c r="AM3">
         <v>0</v>
       </c>
-      <c r="AN3">
-        <v>27.45827984595635</v>
-      </c>
-      <c r="AP3">
-        <v>-52.42713319530662</v>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chongqing Rural Commercial Bank Co., Ltd. (SEHK:3618)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Banks (Regional)</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.0121</v>
+      </c>
+      <c r="E4">
+        <v>0.0435</v>
+      </c>
+      <c r="F4">
+        <v>0.00265</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1310.8</v>
+      </c>
+      <c r="L4">
+        <v>0.4519065021030131</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>-0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>-0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>4013</v>
+      </c>
+      <c r="V4">
+        <v>0.5636156795550624</v>
+      </c>
+      <c r="W4">
+        <v>0.1208411309726845</v>
+      </c>
+      <c r="X4">
+        <v>0.1523471291843931</v>
+      </c>
+      <c r="Y4">
+        <v>-0.03150599821170866</v>
+      </c>
+      <c r="Z4">
+        <v>0.07350790806823164</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.04336640218976998</v>
+      </c>
+      <c r="AC4">
+        <v>-0.04336640218976998</v>
+      </c>
+      <c r="AD4">
+        <v>33922.7</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>33922.7</v>
+      </c>
+      <c r="AG4">
+        <v>29909.7</v>
+      </c>
+      <c r="AH4">
+        <v>0.8265201204596178</v>
+      </c>
+      <c r="AI4">
+        <v>0.7088420590724352</v>
+      </c>
+      <c r="AJ4">
+        <v>0.8077197284349362</v>
+      </c>
+      <c r="AK4">
+        <v>0.6821923432207738</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
